--- a/BackTest/2020-01-20 BackTest BSV.xlsx
+++ b/BackTest/2020-01-20 BackTest BSV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2761,7 +2761,7 @@
         <v>3345.715420830001</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>4177.509740500001</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>4425.677721200001</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>4306.428357490001</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>4042.390257490001</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>3993.606061840001</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>3838.289361840001</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>3655.646761840001</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>4157.120361840001</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>3571.841360500001</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>3750.871643740001</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>3485.194170570001</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>3780.800403840001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>4044.025867510001</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>3998.205568190001</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>4056.418467520001</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>3992.914174700001</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>3856.442038590001</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>3940.286379260001</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>3644.965818180001</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>3782.260472430001</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>3734.208134650001</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>3657.603809250001</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>3593.285914640001</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>3646.43161947</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>3605.67612151</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>3265.3402222</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>2385.13023657</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>2678.04270155</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>2670.963548990001</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>2541.89354977</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>2618.73745323</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>2974.173791170001</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>3475.292921470001</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>3364.571152290001</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>3403.759396590001</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>3329.194841180001</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>1487.989188180002</v>
       </c>
       <c r="H629" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -23551,7 +23551,7 @@
         <v>1710.837661050003</v>
       </c>
       <c r="H702" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -23584,7 +23584,7 @@
         <v>1631.946961050003</v>
       </c>
       <c r="H703" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -23617,7 +23617,7 @@
         <v>1631.946961050003</v>
       </c>
       <c r="H704" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -23650,7 +23650,7 @@
         <v>1627.629961050003</v>
       </c>
       <c r="H705" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -23683,7 +23683,7 @@
         <v>1618.636198100003</v>
       </c>
       <c r="H706" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -25531,7 +25531,7 @@
         <v>1791.164424320003</v>
       </c>
       <c r="H762" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -25564,7 +25564,7 @@
         <v>1773.230424320004</v>
       </c>
       <c r="H763" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -25597,7 +25597,7 @@
         <v>1794.376024320004</v>
       </c>
       <c r="H764" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -25630,7 +25630,7 @@
         <v>1722.128924320004</v>
       </c>
       <c r="H765" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -25663,7 +25663,7 @@
         <v>1722.128924320004</v>
       </c>
       <c r="H766" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -25861,7 +25861,7 @@
         <v>1964.280635040004</v>
       </c>
       <c r="H772" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -25894,7 +25894,7 @@
         <v>2075.689643370004</v>
       </c>
       <c r="H773" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -25927,7 +25927,7 @@
         <v>1905.217543370004</v>
       </c>
       <c r="H774" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -25960,7 +25960,7 @@
         <v>1928.249806090004</v>
       </c>
       <c r="H775" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -25993,7 +25993,7 @@
         <v>2001.758806020004</v>
       </c>
       <c r="H776" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -26026,7 +26026,7 @@
         <v>2287.777634100004</v>
       </c>
       <c r="H777" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -26059,7 +26059,7 @@
         <v>1889.236235300004</v>
       </c>
       <c r="H778" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -26092,7 +26092,7 @@
         <v>2017.549639410003</v>
       </c>
       <c r="H779" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -26125,7 +26125,7 @@
         <v>1903.062438770003</v>
       </c>
       <c r="H780" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -26158,7 +26158,7 @@
         <v>1759.414004870003</v>
       </c>
       <c r="H781" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -26191,7 +26191,7 @@
         <v>1521.362205210003</v>
       </c>
       <c r="H782" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -26224,7 +26224,7 @@
         <v>1663.847006360003</v>
       </c>
       <c r="H783" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -26257,7 +26257,7 @@
         <v>1781.237650730003</v>
       </c>
       <c r="H784" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -26290,7 +26290,7 @@
         <v>2029.955130700003</v>
       </c>
       <c r="H785" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -26686,7 +26686,7 @@
         <v>1921.414874210004</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -26719,7 +26719,7 @@
         <v>1921.414874210004</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -26752,7 +26752,7 @@
         <v>1913.635227390004</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -26785,7 +26785,7 @@
         <v>1822.874727390003</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -26818,7 +26818,7 @@
         <v>1716.792927390004</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -26851,7 +26851,7 @@
         <v>1714.314627390004</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -26884,7 +26884,7 @@
         <v>1649.435927390004</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -26917,7 +26917,7 @@
         <v>1649.435927390004</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -26950,7 +26950,7 @@
         <v>1661.088727390004</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -26983,7 +26983,7 @@
         <v>1828.239527390004</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -27016,7 +27016,7 @@
         <v>1752.747922940004</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -27049,7 +27049,7 @@
         <v>1684.916022940004</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -27082,7 +27082,7 @@
         <v>1854.116600690004</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -27115,7 +27115,7 @@
         <v>1868.191264820004</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -27148,7 +27148,7 @@
         <v>2073.368739330004</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -27181,7 +27181,7 @@
         <v>1938.420690800004</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -27214,7 +27214,7 @@
         <v>1868.786190800004</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -27247,7 +27247,7 @@
         <v>1993.095390800004</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -27280,7 +27280,7 @@
         <v>1970.648290800003</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -27313,7 +27313,7 @@
         <v>1970.648290800003</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -27346,7 +27346,7 @@
         <v>1998.036184710003</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -27379,7 +27379,7 @@
         <v>1990.156909670003</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -27412,7 +27412,7 @@
         <v>2001.873431780003</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -27445,7 +27445,7 @@
         <v>1922.107831780003</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -27478,7 +27478,7 @@
         <v>1868.754131780003</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -27511,7 +27511,7 @@
         <v>1900.854031780003</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -27544,7 +27544,7 @@
         <v>2020.430454340003</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -27577,7 +27577,7 @@
         <v>1872.245654340003</v>
       </c>
       <c r="H824" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -27610,7 +27610,7 @@
         <v>1872.245654340003</v>
       </c>
       <c r="H825" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -27643,7 +27643,7 @@
         <v>1899.871854340003</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -27676,7 +27676,7 @@
         <v>1930.359154340003</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -27709,7 +27709,7 @@
         <v>1964.914254340003</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -27742,7 +27742,7 @@
         <v>2099.476754340003</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -27775,7 +27775,7 @@
         <v>2632.307923600003</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -27808,7 +27808,7 @@
         <v>2738.248932290003</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -27841,7 +27841,7 @@
         <v>2588.714932290003</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -27874,7 +27874,7 @@
         <v>2633.347832290003</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -27907,7 +27907,7 @@
         <v>2777.056002760003</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -27940,7 +27940,7 @@
         <v>2994.161393950003</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -27973,7 +27973,7 @@
         <v>2825.276393950003</v>
       </c>
       <c r="H836" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -28006,7 +28006,7 @@
         <v>2668.680817510003</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -28039,7 +28039,7 @@
         <v>2566.026469530003</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -28072,7 +28072,7 @@
         <v>2413.092468230003</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -28105,7 +28105,7 @@
         <v>2321.635568230003</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -28138,7 +28138,7 @@
         <v>2102.557144360003</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -28171,7 +28171,7 @@
         <v>2151.405344360003</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -28204,7 +28204,7 @@
         <v>2340.362143700003</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -28237,7 +28237,7 @@
         <v>2201.248643700003</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -28270,7 +28270,7 @@
         <v>2166.123243700003</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -28303,7 +28303,7 @@
         <v>2089.599781820003</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -28336,7 +28336,7 @@
         <v>1903.878055060003</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -28369,7 +28369,7 @@
         <v>2097.765928300003</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -28402,7 +28402,7 @@
         <v>2145.530428300003</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -28435,7 +28435,7 @@
         <v>2161.566728300003</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -28468,7 +28468,7 @@
         <v>2267.909228300004</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -28501,7 +28501,7 @@
         <v>2268.367528950004</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -28534,7 +28534,7 @@
         <v>2267.436528950004</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -28567,7 +28567,7 @@
         <v>2316.121066420004</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -28600,7 +28600,7 @@
         <v>2418.653293360004</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -28633,7 +28633,7 @@
         <v>2418.653293360004</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -28666,7 +28666,7 @@
         <v>2352.450393360004</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -28699,7 +28699,7 @@
         <v>2265.100463220003</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -28732,7 +28732,7 @@
         <v>2151.039064410003</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -28765,7 +28765,7 @@
         <v>1965.874664410003</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -28798,7 +28798,7 @@
         <v>1818.525164410003</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -28831,7 +28831,7 @@
         <v>1655.538764410003</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -28864,7 +28864,7 @@
         <v>1775.677864410003</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -28897,7 +28897,7 @@
         <v>1899.845164410003</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -28930,7 +28930,7 @@
         <v>1948.708464410003</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -28963,7 +28963,7 @@
         <v>1630.128864410003</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -28996,7 +28996,7 @@
         <v>1563.440346960003</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -29029,7 +29029,7 @@
         <v>1494.612046960003</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -29062,7 +29062,7 @@
         <v>1458.981646960003</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -29095,7 +29095,7 @@
         <v>1455.400246960003</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -29128,7 +29128,7 @@
         <v>1463.043346960003</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -29161,7 +29161,7 @@
         <v>1501.795066520004</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -29194,7 +29194,7 @@
         <v>1423.342144680003</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -29227,7 +29227,7 @@
         <v>1364.642254870003</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -29260,7 +29260,7 @@
         <v>1266.998754870003</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -29293,7 +29293,7 @@
         <v>1294.868554870003</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -29326,7 +29326,7 @@
         <v>1371.577454870004</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -29359,7 +29359,7 @@
         <v>1348.181653370003</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -29392,7 +29392,7 @@
         <v>1365.304653370004</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -29425,7 +29425,7 @@
         <v>1377.414653370003</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -29458,7 +29458,7 @@
         <v>1418.309153370004</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -29491,7 +29491,7 @@
         <v>1418.309153370004</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -31207,7 +31207,7 @@
         <v>2353.670024730003</v>
       </c>
       <c r="H934" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -31240,7 +31240,7 @@
         <v>2353.670024730003</v>
       </c>
       <c r="H935" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -31273,7 +31273,7 @@
         <v>2353.670024730003</v>
       </c>
       <c r="H936" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -31306,7 +31306,7 @@
         <v>2392.924524730003</v>
       </c>
       <c r="H937" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -31339,7 +31339,7 @@
         <v>2381.445124730003</v>
       </c>
       <c r="H938" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -31372,7 +31372,7 @@
         <v>2403.900220560003</v>
       </c>
       <c r="H939" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -31405,7 +31405,7 @@
         <v>2403.900220560003</v>
       </c>
       <c r="H940" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -31438,7 +31438,7 @@
         <v>2465.764420560003</v>
       </c>
       <c r="H941" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -31471,7 +31471,7 @@
         <v>2498.588220560003</v>
       </c>
       <c r="H942" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -31504,7 +31504,7 @@
         <v>2554.402920560003</v>
       </c>
       <c r="H943" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -31537,7 +31537,7 @@
         <v>2545.659020560003</v>
       </c>
       <c r="H944" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -31570,7 +31570,7 @@
         <v>2555.867473790003</v>
       </c>
       <c r="H945" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -31603,7 +31603,7 @@
         <v>2434.221473790003</v>
       </c>
       <c r="H946" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -31636,7 +31636,7 @@
         <v>2434.663573790003</v>
       </c>
       <c r="H947" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -31669,7 +31669,7 @@
         <v>2427.813373790003</v>
       </c>
       <c r="H948" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -31702,7 +31702,7 @@
         <v>2405.683273790004</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -31735,7 +31735,7 @@
         <v>2370.585173790003</v>
       </c>
       <c r="H950" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -31768,7 +31768,7 @@
         <v>2451.717573790003</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -31801,7 +31801,7 @@
         <v>2451.717573790003</v>
       </c>
       <c r="H952" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -31834,7 +31834,7 @@
         <v>2430.202373790004</v>
       </c>
       <c r="H953" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -31867,7 +31867,7 @@
         <v>2460.404377760004</v>
       </c>
       <c r="H954" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -31900,7 +31900,7 @@
         <v>2423.893804740004</v>
       </c>
       <c r="H955" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -31933,7 +31933,7 @@
         <v>2335.886848340004</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -31966,7 +31966,7 @@
         <v>2335.886848340004</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -31999,7 +31999,7 @@
         <v>2342.694048340004</v>
       </c>
       <c r="H958" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -32032,7 +32032,7 @@
         <v>2358.994244370004</v>
       </c>
       <c r="H959" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -32065,7 +32065,7 @@
         <v>2385.563348340004</v>
       </c>
       <c r="H960" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -32098,7 +32098,7 @@
         <v>2392.555449520004</v>
       </c>
       <c r="H961" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -32131,7 +32131,7 @@
         <v>2373.335349520004</v>
       </c>
       <c r="H962" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -32164,7 +32164,7 @@
         <v>2333.076549520004</v>
       </c>
       <c r="H963" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -32197,7 +32197,7 @@
         <v>2323.124449520004</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -32230,7 +32230,7 @@
         <v>2190.916549520004</v>
       </c>
       <c r="H965" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -32263,7 +32263,7 @@
         <v>2229.774865680004</v>
       </c>
       <c r="H966" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -32296,7 +32296,7 @@
         <v>2225.988065680004</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -32329,7 +32329,7 @@
         <v>2209.485365680004</v>
       </c>
       <c r="H968" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -32362,7 +32362,7 @@
         <v>2212.797265680004</v>
       </c>
       <c r="H969" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -32395,7 +32395,7 @@
         <v>2215.058365680004</v>
       </c>
       <c r="H970" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -32428,7 +32428,7 @@
         <v>2167.457265680005</v>
       </c>
       <c r="H971" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -32461,7 +32461,7 @@
         <v>2216.763465680005</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -32494,7 +32494,7 @@
         <v>2216.763465680005</v>
       </c>
       <c r="H973" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -32527,7 +32527,7 @@
         <v>2203.685065680005</v>
       </c>
       <c r="H974" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -32560,7 +32560,7 @@
         <v>2203.685065680005</v>
       </c>
       <c r="H975" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -32593,7 +32593,7 @@
         <v>2204.291865680005</v>
       </c>
       <c r="H976" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -32626,7 +32626,7 @@
         <v>2204.291865680005</v>
       </c>
       <c r="H977" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -32758,7 +32758,7 @@
         <v>2204.608365680005</v>
       </c>
       <c r="H981" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -32791,7 +32791,7 @@
         <v>2204.608365680005</v>
       </c>
       <c r="H982" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -32824,7 +32824,7 @@
         <v>2194.533367180004</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -32857,7 +32857,7 @@
         <v>2209.491168680005</v>
       </c>
       <c r="H984" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -33682,7 +33682,7 @@
         <v>2344.960268940004</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -33715,7 +33715,7 @@
         <v>2344.960268940004</v>
       </c>
       <c r="H1010" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -33748,7 +33748,7 @@
         <v>2280.711768940004</v>
       </c>
       <c r="H1011" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -33781,7 +33781,7 @@
         <v>2243.770168940004</v>
       </c>
       <c r="H1012" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -33814,7 +33814,7 @@
         <v>2243.770168940004</v>
       </c>
       <c r="H1013" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -33847,7 +33847,7 @@
         <v>2243.770168940004</v>
       </c>
       <c r="H1014" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -33880,7 +33880,7 @@
         <v>2243.770168940004</v>
       </c>
       <c r="H1015" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -33913,7 +33913,7 @@
         <v>2309.353268940004</v>
       </c>
       <c r="H1016" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -33946,7 +33946,7 @@
         <v>2282.409268940004</v>
       </c>
       <c r="H1017" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -34078,7 +34078,7 @@
         <v>2279.735668940004</v>
       </c>
       <c r="H1021" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -34111,7 +34111,7 @@
         <v>2279.735668940004</v>
       </c>
       <c r="H1022" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -34210,7 +34210,7 @@
         <v>2253.875468940004</v>
       </c>
       <c r="H1025" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -34243,7 +34243,7 @@
         <v>2257.131568940004</v>
       </c>
       <c r="H1026" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -34276,7 +34276,7 @@
         <v>2257.131568940004</v>
       </c>
       <c r="H1027" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -34309,7 +34309,7 @@
         <v>2253.315268940004</v>
       </c>
       <c r="H1028" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -34408,7 +34408,7 @@
         <v>2238.655268940005</v>
       </c>
       <c r="H1031" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -34474,7 +34474,7 @@
         <v>2085.902868940005</v>
       </c>
       <c r="H1033" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -34507,7 +34507,7 @@
         <v>2103.205568940005</v>
       </c>
       <c r="H1034" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -34540,7 +34540,7 @@
         <v>1818.649168940005</v>
       </c>
       <c r="H1035" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -34573,7 +34573,7 @@
         <v>1602.859568940005</v>
       </c>
       <c r="H1036" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -34606,7 +34606,7 @@
         <v>1679.565968940005</v>
       </c>
       <c r="H1037" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -34639,7 +34639,7 @@
         <v>1749.948011690005</v>
       </c>
       <c r="H1038" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -34672,7 +34672,7 @@
         <v>1732.602511690005</v>
       </c>
       <c r="H1039" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -39457,11 +39457,17 @@
         <v>-4795.723548879995</v>
       </c>
       <c r="H1184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>271100</v>
+      </c>
       <c r="J1184" t="inlineStr"/>
-      <c r="K1184" t="inlineStr"/>
+      <c r="K1184" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1184" t="n">
         <v>1</v>
       </c>
@@ -39490,11 +39496,17 @@
         <v>-5086.568148879996</v>
       </c>
       <c r="H1185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1185" t="n">
+        <v>271100</v>
+      </c>
       <c r="J1185" t="inlineStr"/>
-      <c r="K1185" t="inlineStr"/>
+      <c r="K1185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1185" t="n">
         <v>1</v>
       </c>
@@ -39523,11 +39535,17 @@
         <v>-5296.697848879996</v>
       </c>
       <c r="H1186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>270700</v>
+      </c>
       <c r="J1186" t="inlineStr"/>
-      <c r="K1186" t="inlineStr"/>
+      <c r="K1186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1186" t="n">
         <v>1</v>
       </c>
@@ -39556,11 +39574,17 @@
         <v>-5055.241248879996</v>
       </c>
       <c r="H1187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>270000</v>
+      </c>
       <c r="J1187" t="inlineStr"/>
-      <c r="K1187" t="inlineStr"/>
+      <c r="K1187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1187" t="n">
         <v>1</v>
       </c>
@@ -39589,11 +39613,17 @@
         <v>-4885.610448879996</v>
       </c>
       <c r="H1188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>271500</v>
+      </c>
       <c r="J1188" t="inlineStr"/>
-      <c r="K1188" t="inlineStr"/>
+      <c r="K1188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1188" t="n">
         <v>1</v>
       </c>
@@ -39622,11 +39652,17 @@
         <v>-4982.063926989996</v>
       </c>
       <c r="H1189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1189" t="n">
+        <v>271800</v>
+      </c>
       <c r="J1189" t="inlineStr"/>
-      <c r="K1189" t="inlineStr"/>
+      <c r="K1189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1189" t="n">
         <v>1</v>
       </c>
@@ -39655,11 +39691,17 @@
         <v>-4952.726532119996</v>
       </c>
       <c r="H1190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1190" t="n">
+        <v>271600</v>
+      </c>
       <c r="J1190" t="inlineStr"/>
-      <c r="K1190" t="inlineStr"/>
+      <c r="K1190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1190" t="n">
         <v>1</v>
       </c>
@@ -39688,11 +39730,17 @@
         <v>-5057.665032119996</v>
       </c>
       <c r="H1191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1191" t="n">
+        <v>272800</v>
+      </c>
       <c r="J1191" t="inlineStr"/>
-      <c r="K1191" t="inlineStr"/>
+      <c r="K1191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1191" t="n">
         <v>1</v>
       </c>
@@ -39721,11 +39769,17 @@
         <v>-4996.423932119996</v>
       </c>
       <c r="H1192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1192" t="n">
+        <v>272300</v>
+      </c>
       <c r="J1192" t="inlineStr"/>
-      <c r="K1192" t="inlineStr"/>
+      <c r="K1192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1192" t="n">
         <v>1</v>
       </c>
@@ -39754,7 +39808,7 @@
         <v>-5055.813332119996</v>
       </c>
       <c r="H1193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1193" t="n">
         <v>272500</v>
@@ -39762,7 +39816,7 @@
       <c r="J1193" t="inlineStr"/>
       <c r="K1193" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1193" t="n">
@@ -39793,7 +39847,7 @@
         <v>-4883.483145889995</v>
       </c>
       <c r="H1194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1194" t="n">
         <v>271700</v>
@@ -39832,7 +39886,7 @@
         <v>-5002.383887899995</v>
       </c>
       <c r="H1195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1195" t="n">
         <v>272600</v>
@@ -39871,7 +39925,7 @@
         <v>-5032.451789369995</v>
       </c>
       <c r="H1196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1196" t="n">
         <v>271900</v>
@@ -39910,7 +39964,7 @@
         <v>-5120.245889369995</v>
       </c>
       <c r="H1197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1197" t="n">
         <v>271400</v>
@@ -39949,7 +40003,7 @@
         <v>-5066.663689369995</v>
       </c>
       <c r="H1198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1198" t="n">
         <v>270700</v>
@@ -39988,7 +40042,7 @@
         <v>-4959.142790839996</v>
       </c>
       <c r="H1199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1199" t="n">
         <v>272000</v>
@@ -40027,7 +40081,7 @@
         <v>-4915.186890839996</v>
       </c>
       <c r="H1200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1200" t="n">
         <v>273900</v>
@@ -40066,7 +40120,7 @@
         <v>-4832.552990839996</v>
       </c>
       <c r="H1201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1201" t="n">
         <v>274200</v>
@@ -40105,7 +40159,7 @@
         <v>-4542.970590839996</v>
       </c>
       <c r="H1202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1202" t="n">
         <v>275200</v>
@@ -40144,7 +40198,7 @@
         <v>-4240.039488739995</v>
       </c>
       <c r="H1203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1203" t="n">
         <v>275600</v>
@@ -40183,9 +40237,11 @@
         <v>-4240.039488739995</v>
       </c>
       <c r="H1204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>276800</v>
+      </c>
       <c r="J1204" t="inlineStr"/>
       <c r="K1204" t="inlineStr">
         <is>
@@ -40331,9 +40387,11 @@
         <v>-4175.625800209996</v>
       </c>
       <c r="H1208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>275600</v>
+      </c>
       <c r="J1208" t="inlineStr"/>
       <c r="K1208" t="inlineStr">
         <is>
@@ -40442,11 +40500,9 @@
         <v>-4026.426100209996</v>
       </c>
       <c r="H1211" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1211" t="n">
-        <v>277200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1211" t="inlineStr"/>
       <c r="J1211" t="inlineStr"/>
       <c r="K1211" t="inlineStr">
         <is>
@@ -41221,9 +41277,11 @@
         <v>-3723.736174139995</v>
       </c>
       <c r="H1232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>276500</v>
+      </c>
       <c r="J1232" t="inlineStr"/>
       <c r="K1232" t="inlineStr">
         <is>
@@ -41258,9 +41316,11 @@
         <v>-3767.704674139995</v>
       </c>
       <c r="H1233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>276700</v>
+      </c>
       <c r="J1233" t="inlineStr"/>
       <c r="K1233" t="inlineStr">
         <is>
@@ -41480,9 +41540,11 @@
         <v>-3969.726174139995</v>
       </c>
       <c r="H1239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>275100</v>
+      </c>
       <c r="J1239" t="inlineStr"/>
       <c r="K1239" t="inlineStr">
         <is>
@@ -41517,9 +41579,11 @@
         <v>-3889.938774139995</v>
       </c>
       <c r="H1240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>273000</v>
+      </c>
       <c r="J1240" t="inlineStr"/>
       <c r="K1240" t="inlineStr">
         <is>
@@ -41554,9 +41618,11 @@
         <v>-3889.938774139995</v>
       </c>
       <c r="H1241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>274500</v>
+      </c>
       <c r="J1241" t="inlineStr"/>
       <c r="K1241" t="inlineStr">
         <is>
@@ -41591,9 +41657,11 @@
         <v>-3827.905374139995</v>
       </c>
       <c r="H1242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1242" t="n">
+        <v>274500</v>
+      </c>
       <c r="J1242" t="inlineStr"/>
       <c r="K1242" t="inlineStr">
         <is>
@@ -41628,9 +41696,11 @@
         <v>-3961.124274139995</v>
       </c>
       <c r="H1243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1243" t="n">
+        <v>275500</v>
+      </c>
       <c r="J1243" t="inlineStr"/>
       <c r="K1243" t="inlineStr">
         <is>
@@ -41665,9 +41735,11 @@
         <v>-3964.313074139995</v>
       </c>
       <c r="H1244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1244" t="n">
+        <v>275300</v>
+      </c>
       <c r="J1244" t="inlineStr"/>
       <c r="K1244" t="inlineStr">
         <is>
@@ -41702,9 +41774,11 @@
         <v>-3963.102974139995</v>
       </c>
       <c r="H1245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1245" t="n">
+        <v>275000</v>
+      </c>
       <c r="J1245" t="inlineStr"/>
       <c r="K1245" t="inlineStr">
         <is>
@@ -41739,9 +41813,11 @@
         <v>-4072.744874139995</v>
       </c>
       <c r="H1246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1246" t="n">
+        <v>275300</v>
+      </c>
       <c r="J1246" t="inlineStr"/>
       <c r="K1246" t="inlineStr">
         <is>
@@ -41776,9 +41852,11 @@
         <v>-4051.876474139995</v>
       </c>
       <c r="H1247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1247" t="n">
+        <v>273600</v>
+      </c>
       <c r="J1247" t="inlineStr"/>
       <c r="K1247" t="inlineStr">
         <is>
@@ -41813,9 +41891,11 @@
         <v>-4158.299874139995</v>
       </c>
       <c r="H1248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1248" t="n">
+        <v>274400</v>
+      </c>
       <c r="J1248" t="inlineStr"/>
       <c r="K1248" t="inlineStr">
         <is>
@@ -41850,9 +41930,11 @@
         <v>-4142.793574139995</v>
       </c>
       <c r="H1249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1249" t="n">
+        <v>272400</v>
+      </c>
       <c r="J1249" t="inlineStr"/>
       <c r="K1249" t="inlineStr">
         <is>
@@ -41887,9 +41969,11 @@
         <v>-4142.291574139995</v>
       </c>
       <c r="H1250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1250" t="n">
+        <v>273300</v>
+      </c>
       <c r="J1250" t="inlineStr"/>
       <c r="K1250" t="inlineStr">
         <is>
@@ -41924,9 +42008,11 @@
         <v>-4207.050174139995</v>
       </c>
       <c r="H1251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1251" t="n">
+        <v>273700</v>
+      </c>
       <c r="J1251" t="inlineStr"/>
       <c r="K1251" t="inlineStr">
         <is>
@@ -41961,7 +42047,7 @@
         <v>-4081.795874139995</v>
       </c>
       <c r="H1252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1252" t="n">
         <v>272300</v>
@@ -42000,7 +42086,7 @@
         <v>-3956.149659599995</v>
       </c>
       <c r="H1253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1253" t="n">
         <v>273900</v>
@@ -42039,7 +42125,7 @@
         <v>-3956.149659599995</v>
       </c>
       <c r="H1254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1254" t="n">
         <v>276700</v>
@@ -42078,9 +42164,11 @@
         <v>-3875.756559599995</v>
       </c>
       <c r="H1255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1255" t="n">
+        <v>276700</v>
+      </c>
       <c r="J1255" t="inlineStr"/>
       <c r="K1255" t="inlineStr">
         <is>
@@ -42115,9 +42203,11 @@
         <v>-3858.996143219995</v>
       </c>
       <c r="H1256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1256" t="n">
+        <v>276800</v>
+      </c>
       <c r="J1256" t="inlineStr"/>
       <c r="K1256" t="inlineStr">
         <is>
@@ -42152,9 +42242,11 @@
         <v>-3814.585359599995</v>
       </c>
       <c r="H1257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1257" t="n">
+        <v>277100</v>
+      </c>
       <c r="J1257" t="inlineStr"/>
       <c r="K1257" t="inlineStr">
         <is>
@@ -44165,6 +44257,6 @@
       <c r="M1311" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest BSV.xlsx
+++ b/BackTest/2020-01-20 BackTest BSV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2035,7 +2035,7 @@
         <v>405.7345144000004</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-350.5425895899996</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>511.3282489200004</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>2509.554441610001</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>3655.646761840001</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>4157.120361840001</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>3571.841360500001</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>4017.127604680001</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>4169.596249340001</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>4044.025867510001</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>3998.205568190001</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>4056.418467520001</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>3992.914174700001</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>3856.442038590001</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>3940.286379260001</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>3644.965818180001</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>3782.260472430001</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>3734.208134650001</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>3657.603809250001</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>3593.285914640001</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>3646.43161947</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>3605.67612151</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>3265.3402222</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>2385.13023657</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>2678.04270155</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>2670.963548990001</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>2541.89354977</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>2618.73745323</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>2974.173791170001</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>3475.292921470001</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>3364.571152290001</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>3403.759396590001</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>3329.194841180001</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>1850.018375930004</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>2349.492235120004</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>2555.128335120004</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>2402.744392530004</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>2538.368392090004</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>2743.795892530004</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>2743.795892530004</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>2596.192392530004</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>2275.440092530004</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>2339.672500520004</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>2178.514400520004</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>2230.728892530004</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>2181.176292530004</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>2279.162017800003</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>2373.150017800003</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>2494.946419140003</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>2419.184394770003</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>2246.466188610003</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>2404.204988610003</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -26686,7 +26686,7 @@
         <v>1921.414874210004</v>
       </c>
       <c r="H797" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -26719,7 +26719,7 @@
         <v>1921.414874210004</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -26752,7 +26752,7 @@
         <v>1913.635227390004</v>
       </c>
       <c r="H799" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -26785,7 +26785,7 @@
         <v>1822.874727390003</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -26818,7 +26818,7 @@
         <v>1716.792927390004</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -26851,7 +26851,7 @@
         <v>1714.314627390004</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -26884,7 +26884,7 @@
         <v>1649.435927390004</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -26917,7 +26917,7 @@
         <v>1649.435927390004</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -26950,7 +26950,7 @@
         <v>1661.088727390004</v>
       </c>
       <c r="H805" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -26983,7 +26983,7 @@
         <v>1828.239527390004</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -27016,7 +27016,7 @@
         <v>1752.747922940004</v>
       </c>
       <c r="H807" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -27049,7 +27049,7 @@
         <v>1684.916022940004</v>
       </c>
       <c r="H808" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -27082,7 +27082,7 @@
         <v>1854.116600690004</v>
       </c>
       <c r="H809" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -27115,7 +27115,7 @@
         <v>1868.191264820004</v>
       </c>
       <c r="H810" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -27148,7 +27148,7 @@
         <v>2073.368739330004</v>
       </c>
       <c r="H811" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -27181,7 +27181,7 @@
         <v>1938.420690800004</v>
       </c>
       <c r="H812" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -27214,7 +27214,7 @@
         <v>1868.786190800004</v>
       </c>
       <c r="H813" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -27247,7 +27247,7 @@
         <v>1993.095390800004</v>
       </c>
       <c r="H814" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -27280,7 +27280,7 @@
         <v>1970.648290800003</v>
       </c>
       <c r="H815" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -27313,7 +27313,7 @@
         <v>1970.648290800003</v>
       </c>
       <c r="H816" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -27346,7 +27346,7 @@
         <v>1998.036184710003</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -27379,7 +27379,7 @@
         <v>1990.156909670003</v>
       </c>
       <c r="H818" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -27412,7 +27412,7 @@
         <v>2001.873431780003</v>
       </c>
       <c r="H819" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -27445,7 +27445,7 @@
         <v>1922.107831780003</v>
       </c>
       <c r="H820" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -27478,7 +27478,7 @@
         <v>1868.754131780003</v>
       </c>
       <c r="H821" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -27511,7 +27511,7 @@
         <v>1900.854031780003</v>
       </c>
       <c r="H822" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -27544,7 +27544,7 @@
         <v>2020.430454340003</v>
       </c>
       <c r="H823" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -27577,7 +27577,7 @@
         <v>1872.245654340003</v>
       </c>
       <c r="H824" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -27610,7 +27610,7 @@
         <v>1872.245654340003</v>
       </c>
       <c r="H825" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -27643,7 +27643,7 @@
         <v>1899.871854340003</v>
       </c>
       <c r="H826" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -27676,7 +27676,7 @@
         <v>1930.359154340003</v>
       </c>
       <c r="H827" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -27709,7 +27709,7 @@
         <v>1964.914254340003</v>
       </c>
       <c r="H828" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -27742,7 +27742,7 @@
         <v>2099.476754340003</v>
       </c>
       <c r="H829" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -27775,7 +27775,7 @@
         <v>2632.307923600003</v>
       </c>
       <c r="H830" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -27808,7 +27808,7 @@
         <v>2738.248932290003</v>
       </c>
       <c r="H831" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -27841,7 +27841,7 @@
         <v>2588.714932290003</v>
       </c>
       <c r="H832" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -27874,7 +27874,7 @@
         <v>2633.347832290003</v>
       </c>
       <c r="H833" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -27907,7 +27907,7 @@
         <v>2777.056002760003</v>
       </c>
       <c r="H834" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -27940,7 +27940,7 @@
         <v>2994.161393950003</v>
       </c>
       <c r="H835" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -27973,7 +27973,7 @@
         <v>2825.276393950003</v>
       </c>
       <c r="H836" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -28006,7 +28006,7 @@
         <v>2668.680817510003</v>
       </c>
       <c r="H837" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -28039,7 +28039,7 @@
         <v>2566.026469530003</v>
       </c>
       <c r="H838" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -28072,7 +28072,7 @@
         <v>2413.092468230003</v>
       </c>
       <c r="H839" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -28105,7 +28105,7 @@
         <v>2321.635568230003</v>
       </c>
       <c r="H840" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -28138,7 +28138,7 @@
         <v>2102.557144360003</v>
       </c>
       <c r="H841" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -28171,7 +28171,7 @@
         <v>2151.405344360003</v>
       </c>
       <c r="H842" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -28204,7 +28204,7 @@
         <v>2340.362143700003</v>
       </c>
       <c r="H843" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -28237,7 +28237,7 @@
         <v>2201.248643700003</v>
       </c>
       <c r="H844" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -28270,7 +28270,7 @@
         <v>2166.123243700003</v>
       </c>
       <c r="H845" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -28303,7 +28303,7 @@
         <v>2089.599781820003</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -28336,7 +28336,7 @@
         <v>1903.878055060003</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -28369,7 +28369,7 @@
         <v>2097.765928300003</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -28402,7 +28402,7 @@
         <v>2145.530428300003</v>
       </c>
       <c r="H849" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -28435,7 +28435,7 @@
         <v>2161.566728300003</v>
       </c>
       <c r="H850" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -28468,7 +28468,7 @@
         <v>2267.909228300004</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -28501,7 +28501,7 @@
         <v>2268.367528950004</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -28534,7 +28534,7 @@
         <v>2267.436528950004</v>
       </c>
       <c r="H853" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -28567,7 +28567,7 @@
         <v>2316.121066420004</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -28600,7 +28600,7 @@
         <v>2418.653293360004</v>
       </c>
       <c r="H855" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -28633,7 +28633,7 @@
         <v>2418.653293360004</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -28666,7 +28666,7 @@
         <v>2352.450393360004</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -28699,7 +28699,7 @@
         <v>2265.100463220003</v>
       </c>
       <c r="H858" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -28732,7 +28732,7 @@
         <v>2151.039064410003</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -28765,7 +28765,7 @@
         <v>1965.874664410003</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -28798,7 +28798,7 @@
         <v>1818.525164410003</v>
       </c>
       <c r="H861" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -28831,7 +28831,7 @@
         <v>1655.538764410003</v>
       </c>
       <c r="H862" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -28864,7 +28864,7 @@
         <v>1775.677864410003</v>
       </c>
       <c r="H863" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -28897,7 +28897,7 @@
         <v>1899.845164410003</v>
       </c>
       <c r="H864" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -28930,7 +28930,7 @@
         <v>1948.708464410003</v>
       </c>
       <c r="H865" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -28963,7 +28963,7 @@
         <v>1630.128864410003</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -28996,7 +28996,7 @@
         <v>1563.440346960003</v>
       </c>
       <c r="H867" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -29029,7 +29029,7 @@
         <v>1494.612046960003</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -29062,7 +29062,7 @@
         <v>1458.981646960003</v>
       </c>
       <c r="H869" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -29095,7 +29095,7 @@
         <v>1455.400246960003</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -29128,7 +29128,7 @@
         <v>1463.043346960003</v>
       </c>
       <c r="H871" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -29161,7 +29161,7 @@
         <v>1501.795066520004</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -29194,7 +29194,7 @@
         <v>1423.342144680003</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -29227,7 +29227,7 @@
         <v>1364.642254870003</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -29260,7 +29260,7 @@
         <v>1266.998754870003</v>
       </c>
       <c r="H875" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -29293,7 +29293,7 @@
         <v>1294.868554870003</v>
       </c>
       <c r="H876" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -29326,7 +29326,7 @@
         <v>1371.577454870004</v>
       </c>
       <c r="H877" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -29359,7 +29359,7 @@
         <v>1348.181653370003</v>
       </c>
       <c r="H878" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -29392,7 +29392,7 @@
         <v>1365.304653370004</v>
       </c>
       <c r="H879" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -29425,7 +29425,7 @@
         <v>1377.414653370003</v>
       </c>
       <c r="H880" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -29458,7 +29458,7 @@
         <v>1418.309153370004</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -29491,7 +29491,7 @@
         <v>1418.309153370004</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -31207,7 +31207,7 @@
         <v>2353.670024730003</v>
       </c>
       <c r="H934" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -31240,7 +31240,7 @@
         <v>2353.670024730003</v>
       </c>
       <c r="H935" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -31273,7 +31273,7 @@
         <v>2353.670024730003</v>
       </c>
       <c r="H936" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -31306,7 +31306,7 @@
         <v>2392.924524730003</v>
       </c>
       <c r="H937" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -31339,7 +31339,7 @@
         <v>2381.445124730003</v>
       </c>
       <c r="H938" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -31372,7 +31372,7 @@
         <v>2403.900220560003</v>
       </c>
       <c r="H939" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -31405,7 +31405,7 @@
         <v>2403.900220560003</v>
       </c>
       <c r="H940" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -31438,7 +31438,7 @@
         <v>2465.764420560003</v>
       </c>
       <c r="H941" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -31471,7 +31471,7 @@
         <v>2498.588220560003</v>
       </c>
       <c r="H942" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -31504,7 +31504,7 @@
         <v>2554.402920560003</v>
       </c>
       <c r="H943" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -31537,7 +31537,7 @@
         <v>2545.659020560003</v>
       </c>
       <c r="H944" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -31570,7 +31570,7 @@
         <v>2555.867473790003</v>
       </c>
       <c r="H945" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -31603,7 +31603,7 @@
         <v>2434.221473790003</v>
       </c>
       <c r="H946" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -31636,7 +31636,7 @@
         <v>2434.663573790003</v>
       </c>
       <c r="H947" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -31669,7 +31669,7 @@
         <v>2427.813373790003</v>
       </c>
       <c r="H948" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -31702,7 +31702,7 @@
         <v>2405.683273790004</v>
       </c>
       <c r="H949" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -31735,7 +31735,7 @@
         <v>2370.585173790003</v>
       </c>
       <c r="H950" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -31768,7 +31768,7 @@
         <v>2451.717573790003</v>
       </c>
       <c r="H951" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -31801,7 +31801,7 @@
         <v>2451.717573790003</v>
       </c>
       <c r="H952" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -31834,7 +31834,7 @@
         <v>2430.202373790004</v>
       </c>
       <c r="H953" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -31867,7 +31867,7 @@
         <v>2460.404377760004</v>
       </c>
       <c r="H954" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -31900,7 +31900,7 @@
         <v>2423.893804740004</v>
       </c>
       <c r="H955" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -31933,7 +31933,7 @@
         <v>2335.886848340004</v>
       </c>
       <c r="H956" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -31966,7 +31966,7 @@
         <v>2335.886848340004</v>
       </c>
       <c r="H957" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -31999,7 +31999,7 @@
         <v>2342.694048340004</v>
       </c>
       <c r="H958" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -32032,7 +32032,7 @@
         <v>2358.994244370004</v>
       </c>
       <c r="H959" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -32065,7 +32065,7 @@
         <v>2385.563348340004</v>
       </c>
       <c r="H960" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -32098,7 +32098,7 @@
         <v>2392.555449520004</v>
       </c>
       <c r="H961" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -32131,7 +32131,7 @@
         <v>2373.335349520004</v>
       </c>
       <c r="H962" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -32164,7 +32164,7 @@
         <v>2333.076549520004</v>
       </c>
       <c r="H963" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -32197,7 +32197,7 @@
         <v>2323.124449520004</v>
       </c>
       <c r="H964" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -32230,7 +32230,7 @@
         <v>2190.916549520004</v>
       </c>
       <c r="H965" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -32263,7 +32263,7 @@
         <v>2229.774865680004</v>
       </c>
       <c r="H966" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -32296,7 +32296,7 @@
         <v>2225.988065680004</v>
       </c>
       <c r="H967" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -32329,7 +32329,7 @@
         <v>2209.485365680004</v>
       </c>
       <c r="H968" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -32362,7 +32362,7 @@
         <v>2212.797265680004</v>
       </c>
       <c r="H969" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -32395,7 +32395,7 @@
         <v>2215.058365680004</v>
       </c>
       <c r="H970" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -32428,7 +32428,7 @@
         <v>2167.457265680005</v>
       </c>
       <c r="H971" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -32461,7 +32461,7 @@
         <v>2216.763465680005</v>
       </c>
       <c r="H972" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -32494,7 +32494,7 @@
         <v>2216.763465680005</v>
       </c>
       <c r="H973" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -32527,7 +32527,7 @@
         <v>2203.685065680005</v>
       </c>
       <c r="H974" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -32560,7 +32560,7 @@
         <v>2203.685065680005</v>
       </c>
       <c r="H975" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -32593,7 +32593,7 @@
         <v>2204.291865680005</v>
       </c>
       <c r="H976" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -32626,7 +32626,7 @@
         <v>2204.291865680005</v>
       </c>
       <c r="H977" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -32758,7 +32758,7 @@
         <v>2204.608365680005</v>
       </c>
       <c r="H981" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -32791,7 +32791,7 @@
         <v>2204.608365680005</v>
       </c>
       <c r="H982" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -32824,7 +32824,7 @@
         <v>2194.533367180004</v>
       </c>
       <c r="H983" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -32857,7 +32857,7 @@
         <v>2209.491168680005</v>
       </c>
       <c r="H984" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -33682,7 +33682,7 @@
         <v>2344.960268940004</v>
       </c>
       <c r="H1009" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -33715,7 +33715,7 @@
         <v>2344.960268940004</v>
       </c>
       <c r="H1010" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -33748,7 +33748,7 @@
         <v>2280.711768940004</v>
       </c>
       <c r="H1011" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -33781,7 +33781,7 @@
         <v>2243.770168940004</v>
       </c>
       <c r="H1012" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -33814,7 +33814,7 @@
         <v>2243.770168940004</v>
       </c>
       <c r="H1013" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -33847,7 +33847,7 @@
         <v>2243.770168940004</v>
       </c>
       <c r="H1014" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -33880,7 +33880,7 @@
         <v>2243.770168940004</v>
       </c>
       <c r="H1015" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -33913,7 +33913,7 @@
         <v>2309.353268940004</v>
       </c>
       <c r="H1016" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -33946,7 +33946,7 @@
         <v>2282.409268940004</v>
       </c>
       <c r="H1017" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -34078,7 +34078,7 @@
         <v>2279.735668940004</v>
       </c>
       <c r="H1021" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -34111,7 +34111,7 @@
         <v>2279.735668940004</v>
       </c>
       <c r="H1022" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -34210,7 +34210,7 @@
         <v>2253.875468940004</v>
       </c>
       <c r="H1025" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -34243,7 +34243,7 @@
         <v>2257.131568940004</v>
       </c>
       <c r="H1026" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -34276,7 +34276,7 @@
         <v>2257.131568940004</v>
       </c>
       <c r="H1027" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -34309,7 +34309,7 @@
         <v>2253.315268940004</v>
       </c>
       <c r="H1028" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -34408,7 +34408,7 @@
         <v>2238.655268940005</v>
       </c>
       <c r="H1031" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -34474,7 +34474,7 @@
         <v>2085.902868940005</v>
       </c>
       <c r="H1033" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -34507,7 +34507,7 @@
         <v>2103.205568940005</v>
       </c>
       <c r="H1034" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -34540,7 +34540,7 @@
         <v>1818.649168940005</v>
       </c>
       <c r="H1035" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -34573,7 +34573,7 @@
         <v>1602.859568940005</v>
       </c>
       <c r="H1036" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -34606,7 +34606,7 @@
         <v>1679.565968940005</v>
       </c>
       <c r="H1037" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -34639,7 +34639,7 @@
         <v>1749.948011690005</v>
       </c>
       <c r="H1038" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -34672,7 +34672,7 @@
         <v>1732.602511690005</v>
       </c>
       <c r="H1039" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -39457,17 +39457,11 @@
         <v>-4795.723548879995</v>
       </c>
       <c r="H1184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1184" t="n">
-        <v>271100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1184" t="inlineStr"/>
       <c r="J1184" t="inlineStr"/>
-      <c r="K1184" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K1184" t="inlineStr"/>
       <c r="L1184" t="n">
         <v>1</v>
       </c>
@@ -39496,17 +39490,11 @@
         <v>-5086.568148879996</v>
       </c>
       <c r="H1185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1185" t="n">
-        <v>271100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1185" t="inlineStr"/>
       <c r="J1185" t="inlineStr"/>
-      <c r="K1185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1185" t="inlineStr"/>
       <c r="L1185" t="n">
         <v>1</v>
       </c>
@@ -39535,17 +39523,11 @@
         <v>-5296.697848879996</v>
       </c>
       <c r="H1186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1186" t="n">
-        <v>270700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1186" t="inlineStr"/>
       <c r="J1186" t="inlineStr"/>
-      <c r="K1186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1186" t="inlineStr"/>
       <c r="L1186" t="n">
         <v>1</v>
       </c>
@@ -39574,17 +39556,11 @@
         <v>-5055.241248879996</v>
       </c>
       <c r="H1187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1187" t="n">
-        <v>270000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1187" t="inlineStr"/>
       <c r="J1187" t="inlineStr"/>
-      <c r="K1187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1187" t="inlineStr"/>
       <c r="L1187" t="n">
         <v>1</v>
       </c>
@@ -39621,7 +39597,7 @@
       <c r="J1188" t="inlineStr"/>
       <c r="K1188" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L1188" t="n">
@@ -40198,11 +40174,9 @@
         <v>-4240.039488739995</v>
       </c>
       <c r="H1203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1203" t="n">
-        <v>275600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1203" t="inlineStr"/>
       <c r="J1203" t="inlineStr"/>
       <c r="K1203" t="inlineStr">
         <is>
@@ -40237,11 +40211,9 @@
         <v>-4240.039488739995</v>
       </c>
       <c r="H1204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1204" t="n">
-        <v>276800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1204" t="inlineStr"/>
       <c r="J1204" t="inlineStr"/>
       <c r="K1204" t="inlineStr">
         <is>
@@ -40387,11 +40359,9 @@
         <v>-4175.625800209996</v>
       </c>
       <c r="H1208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1208" t="n">
-        <v>275600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1208" t="inlineStr"/>
       <c r="J1208" t="inlineStr"/>
       <c r="K1208" t="inlineStr">
         <is>
@@ -41277,11 +41247,9 @@
         <v>-3723.736174139995</v>
       </c>
       <c r="H1232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1232" t="n">
-        <v>276500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1232" t="inlineStr"/>
       <c r="J1232" t="inlineStr"/>
       <c r="K1232" t="inlineStr">
         <is>
@@ -41316,11 +41284,9 @@
         <v>-3767.704674139995</v>
       </c>
       <c r="H1233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1233" t="n">
-        <v>276700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1233" t="inlineStr"/>
       <c r="J1233" t="inlineStr"/>
       <c r="K1233" t="inlineStr">
         <is>
@@ -41540,11 +41506,9 @@
         <v>-3969.726174139995</v>
       </c>
       <c r="H1239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1239" t="n">
-        <v>275100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1239" t="inlineStr"/>
       <c r="J1239" t="inlineStr"/>
       <c r="K1239" t="inlineStr">
         <is>
@@ -41579,11 +41543,9 @@
         <v>-3889.938774139995</v>
       </c>
       <c r="H1240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1240" t="n">
-        <v>273000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1240" t="inlineStr"/>
       <c r="J1240" t="inlineStr"/>
       <c r="K1240" t="inlineStr">
         <is>
@@ -41735,11 +41697,9 @@
         <v>-3964.313074139995</v>
       </c>
       <c r="H1244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1244" t="n">
-        <v>275300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1244" t="inlineStr"/>
       <c r="J1244" t="inlineStr"/>
       <c r="K1244" t="inlineStr">
         <is>
@@ -41774,11 +41734,9 @@
         <v>-3963.102974139995</v>
       </c>
       <c r="H1245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1245" t="n">
-        <v>275000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1245" t="inlineStr"/>
       <c r="J1245" t="inlineStr"/>
       <c r="K1245" t="inlineStr">
         <is>
@@ -41813,11 +41771,9 @@
         <v>-4072.744874139995</v>
       </c>
       <c r="H1246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1246" t="n">
-        <v>275300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1246" t="inlineStr"/>
       <c r="J1246" t="inlineStr"/>
       <c r="K1246" t="inlineStr">
         <is>
@@ -41852,11 +41808,9 @@
         <v>-4051.876474139995</v>
       </c>
       <c r="H1247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1247" t="n">
-        <v>273600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1247" t="inlineStr"/>
       <c r="J1247" t="inlineStr"/>
       <c r="K1247" t="inlineStr">
         <is>
@@ -41891,11 +41845,9 @@
         <v>-4158.299874139995</v>
       </c>
       <c r="H1248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1248" t="n">
-        <v>274400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1248" t="inlineStr"/>
       <c r="J1248" t="inlineStr"/>
       <c r="K1248" t="inlineStr">
         <is>
@@ -41930,11 +41882,9 @@
         <v>-4142.793574139995</v>
       </c>
       <c r="H1249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1249" t="n">
-        <v>272400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1249" t="inlineStr"/>
       <c r="J1249" t="inlineStr"/>
       <c r="K1249" t="inlineStr">
         <is>
@@ -42164,11 +42114,9 @@
         <v>-3875.756559599995</v>
       </c>
       <c r="H1255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1255" t="n">
-        <v>276700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1255" t="inlineStr"/>
       <c r="J1255" t="inlineStr"/>
       <c r="K1255" t="inlineStr">
         <is>
@@ -42203,11 +42151,9 @@
         <v>-3858.996143219995</v>
       </c>
       <c r="H1256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1256" t="n">
-        <v>276800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1256" t="inlineStr"/>
       <c r="J1256" t="inlineStr"/>
       <c r="K1256" t="inlineStr">
         <is>
@@ -42242,11 +42188,9 @@
         <v>-3814.585359599995</v>
       </c>
       <c r="H1257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1257" t="n">
-        <v>277100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1257" t="inlineStr"/>
       <c r="J1257" t="inlineStr"/>
       <c r="K1257" t="inlineStr">
         <is>
@@ -44257,6 +44201,6 @@
       <c r="M1311" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest BSV.xlsx
+++ b/BackTest/2020-01-20 BackTest BSV.xlsx
@@ -2035,7 +2035,7 @@
         <v>405.7345144000004</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-350.5425895899996</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>511.3282489200004</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>2509.554441610001</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>3544.705949620001</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>3254.903641220001</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>2782.826703190001</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>2450.923995060001</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>2720.389707490001</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>2586.749207490001</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>2892.792407490001</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>3017.262207490001</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>3178.016092030001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>3304.127407490001</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>3382.528207490001</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>4177.509740500001</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>4425.677721200001</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>4306.428357490001</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>4042.390257490001</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>3993.606061840001</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>3838.289361840001</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>3655.646761840001</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>4157.120361840001</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>3571.841360500001</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>3780.800403840001</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>4221.967646290002</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>4365.778178020001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>4173.435172120001</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>1850.018375930004</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>2349.492235120004</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>2555.128335120004</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>2402.744392530004</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>2538.368392090004</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>2743.795892530004</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>2743.795892530004</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>2596.192392530004</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>2275.440092530004</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>2339.672500520004</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>2178.514400520004</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>2230.728892530004</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>2181.176292530004</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>2279.162017800003</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>2373.150017800003</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>2494.946419140003</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>2419.184394770003</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>2246.466188610003</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>2404.204988610003</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -39589,17 +39589,11 @@
         <v>-4885.610448879996</v>
       </c>
       <c r="H1188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1188" t="n">
-        <v>271500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1188" t="inlineStr"/>
       <c r="J1188" t="inlineStr"/>
-      <c r="K1188" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K1188" t="inlineStr"/>
       <c r="L1188" t="n">
         <v>1</v>
       </c>
@@ -39636,7 +39630,7 @@
       <c r="J1189" t="inlineStr"/>
       <c r="K1189" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L1189" t="n">
@@ -40174,9 +40168,11 @@
         <v>-4240.039488739995</v>
       </c>
       <c r="H1203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1203" t="n">
+        <v>275600</v>
+      </c>
       <c r="J1203" t="inlineStr"/>
       <c r="K1203" t="inlineStr">
         <is>
@@ -40211,9 +40207,11 @@
         <v>-4240.039488739995</v>
       </c>
       <c r="H1204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>276800</v>
+      </c>
       <c r="J1204" t="inlineStr"/>
       <c r="K1204" t="inlineStr">
         <is>
@@ -40248,9 +40246,11 @@
         <v>-4275.138067149996</v>
       </c>
       <c r="H1205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1205" t="n">
+        <v>276800</v>
+      </c>
       <c r="J1205" t="inlineStr"/>
       <c r="K1205" t="inlineStr">
         <is>
@@ -40285,9 +40285,11 @@
         <v>-4170.369671879996</v>
       </c>
       <c r="H1206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1206" t="n">
+        <v>276100</v>
+      </c>
       <c r="J1206" t="inlineStr"/>
       <c r="K1206" t="inlineStr">
         <is>
@@ -41321,9 +41323,11 @@
         <v>-3786.426274139995</v>
       </c>
       <c r="H1234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>276500</v>
+      </c>
       <c r="J1234" t="inlineStr"/>
       <c r="K1234" t="inlineStr">
         <is>
@@ -41358,9 +41362,11 @@
         <v>-4010.035974139995</v>
       </c>
       <c r="H1235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>275300</v>
+      </c>
       <c r="J1235" t="inlineStr"/>
       <c r="K1235" t="inlineStr">
         <is>
@@ -41395,9 +41401,11 @@
         <v>-3960.639274139995</v>
       </c>
       <c r="H1236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>274100</v>
+      </c>
       <c r="J1236" t="inlineStr"/>
       <c r="K1236" t="inlineStr">
         <is>
@@ -41432,9 +41440,11 @@
         <v>-3970.997174139995</v>
       </c>
       <c r="H1237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>274900</v>
+      </c>
       <c r="J1237" t="inlineStr"/>
       <c r="K1237" t="inlineStr">
         <is>
@@ -41469,9 +41479,11 @@
         <v>-3956.169774139995</v>
       </c>
       <c r="H1238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>274000</v>
+      </c>
       <c r="J1238" t="inlineStr"/>
       <c r="K1238" t="inlineStr">
         <is>
@@ -41506,9 +41518,11 @@
         <v>-3969.726174139995</v>
       </c>
       <c r="H1239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>275100</v>
+      </c>
       <c r="J1239" t="inlineStr"/>
       <c r="K1239" t="inlineStr">
         <is>
@@ -41543,9 +41557,11 @@
         <v>-3889.938774139995</v>
       </c>
       <c r="H1240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>273000</v>
+      </c>
       <c r="J1240" t="inlineStr"/>
       <c r="K1240" t="inlineStr">
         <is>
@@ -41697,9 +41713,11 @@
         <v>-3964.313074139995</v>
       </c>
       <c r="H1244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1244" t="n">
+        <v>275300</v>
+      </c>
       <c r="J1244" t="inlineStr"/>
       <c r="K1244" t="inlineStr">
         <is>
@@ -41734,9 +41752,11 @@
         <v>-3963.102974139995</v>
       </c>
       <c r="H1245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1245" t="n">
+        <v>275000</v>
+      </c>
       <c r="J1245" t="inlineStr"/>
       <c r="K1245" t="inlineStr">
         <is>
@@ -41771,9 +41791,11 @@
         <v>-4072.744874139995</v>
       </c>
       <c r="H1246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1246" t="n">
+        <v>275300</v>
+      </c>
       <c r="J1246" t="inlineStr"/>
       <c r="K1246" t="inlineStr">
         <is>
@@ -41808,9 +41830,11 @@
         <v>-4051.876474139995</v>
       </c>
       <c r="H1247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1247" t="n">
+        <v>273600</v>
+      </c>
       <c r="J1247" t="inlineStr"/>
       <c r="K1247" t="inlineStr">
         <is>
@@ -41845,9 +41869,11 @@
         <v>-4158.299874139995</v>
       </c>
       <c r="H1248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1248" t="n">
+        <v>274400</v>
+      </c>
       <c r="J1248" t="inlineStr"/>
       <c r="K1248" t="inlineStr">
         <is>
@@ -41882,9 +41908,11 @@
         <v>-4142.793574139995</v>
       </c>
       <c r="H1249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1249" t="n">
+        <v>272400</v>
+      </c>
       <c r="J1249" t="inlineStr"/>
       <c r="K1249" t="inlineStr">
         <is>
@@ -42114,9 +42142,11 @@
         <v>-3875.756559599995</v>
       </c>
       <c r="H1255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1255" t="n">
+        <v>276700</v>
+      </c>
       <c r="J1255" t="inlineStr"/>
       <c r="K1255" t="inlineStr">
         <is>
@@ -42151,9 +42181,11 @@
         <v>-3858.996143219995</v>
       </c>
       <c r="H1256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1256" t="n">
+        <v>276800</v>
+      </c>
       <c r="J1256" t="inlineStr"/>
       <c r="K1256" t="inlineStr">
         <is>
